--- a/ORDER GUIDE - TEMPLATE.xlsx
+++ b/ORDER GUIDE - TEMPLATE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EA88D9-1738-F544-8733-D83055A932DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61280416-B763-E347-96C3-EAF080031E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="760" windowWidth="29940" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="1160" windowWidth="29940" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="order_guide" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Ingredient</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X988"/>
+  <dimension ref="A1:Y988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -501,14 +501,14 @@
     <col min="6" max="6" width="21.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="2" customWidth="1"/>
-    <col min="12" max="24" width="8.83203125" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="14.5" style="2"/>
+    <col min="9" max="10" width="18" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="2" customWidth="1"/>
+    <col min="13" max="25" width="8.83203125" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="14.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -522,7 +522,7 @@
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="1"/>
+      <c r="L1" s="14"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -535,8 +535,9 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
@@ -553,8 +554,8 @@
         <v>4</v>
       </c>
       <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="1"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -567,8 +568,9 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-    </row>
-    <row r="3" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -597,12 +599,14 @@
         <v>0</v>
       </c>
       <c r="J3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -615,8 +619,9 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
-    </row>
-    <row r="4" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -628,7 +633,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -641,8 +646,9 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -654,7 +660,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -667,8 +673,9 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -680,7 +687,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -693,8 +700,9 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -706,7 +714,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -719,8 +727,9 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -732,7 +741,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -745,8 +754,9 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -758,7 +768,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="3"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -771,8 +781,9 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -784,7 +795,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -797,8 +808,9 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -810,7 +822,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="3"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -823,8 +835,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -836,7 +849,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="7"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -849,8 +862,9 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -862,7 +876,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -875,8 +889,9 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -888,7 +903,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -901,8 +916,9 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -914,7 +930,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -927,8 +943,9 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -940,7 +957,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -953,8 +970,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -966,7 +984,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -979,8 +997,9 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -992,7 +1011,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -1005,8 +1024,9 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1018,7 +1038,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="5"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -1031,8 +1051,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1044,7 +1065,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1057,8 +1078,9 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1070,7 +1092,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -1083,8 +1105,9 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1096,7 +1119,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="5"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -1109,8 +1132,9 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1122,7 +1146,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="5"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -1135,8 +1159,9 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1148,7 +1173,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -1161,8 +1186,9 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3"/>
+    </row>
+    <row r="25" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1174,7 +1200,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1187,8 +1213,9 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
-    </row>
-    <row r="26" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3"/>
+    </row>
+    <row r="26" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1200,7 +1227,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -1213,8 +1240,9 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
-    </row>
-    <row r="27" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1226,7 +1254,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -1239,8 +1267,9 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
-    </row>
-    <row r="28" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3"/>
+    </row>
+    <row r="28" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1252,7 +1281,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="3"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -1265,8 +1294,9 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
-    </row>
-    <row r="29" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1278,7 +1308,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="3"/>
+      <c r="L29" s="5"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -1291,8 +1321,9 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
-    </row>
-    <row r="30" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="30" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1304,7 +1335,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="3"/>
+      <c r="L30" s="5"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -1317,8 +1348,9 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-    </row>
-    <row r="31" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3"/>
+    </row>
+    <row r="31" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1330,7 +1362,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="3"/>
+      <c r="L31" s="5"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -1343,8 +1375,9 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
-    </row>
-    <row r="32" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3"/>
+    </row>
+    <row r="32" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1356,7 +1389,7 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="3"/>
+      <c r="L32" s="5"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -1369,8 +1402,9 @@
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
-    </row>
-    <row r="33" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3"/>
+    </row>
+    <row r="33" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1382,7 +1416,7 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="3"/>
+      <c r="L33" s="5"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -1395,8 +1429,9 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
-    </row>
-    <row r="34" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3"/>
+    </row>
+    <row r="34" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1408,7 +1443,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="3"/>
+      <c r="L34" s="5"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -1421,8 +1456,9 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
-    </row>
-    <row r="35" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3"/>
+    </row>
+    <row r="35" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1434,7 +1470,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="3"/>
+      <c r="L35" s="5"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -1447,8 +1483,9 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
-    </row>
-    <row r="36" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3"/>
+    </row>
+    <row r="36" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1460,7 +1497,7 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="3"/>
+      <c r="L36" s="5"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -1473,8 +1510,9 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
-    </row>
-    <row r="37" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y36" s="3"/>
+    </row>
+    <row r="37" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1486,7 +1524,7 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="3"/>
+      <c r="L37" s="5"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -1499,8 +1537,9 @@
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
-    </row>
-    <row r="38" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y37" s="3"/>
+    </row>
+    <row r="38" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1512,7 +1551,7 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="3"/>
+      <c r="L38" s="5"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -1525,8 +1564,9 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
-    </row>
-    <row r="39" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y38" s="3"/>
+    </row>
+    <row r="39" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1538,7 +1578,7 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="3"/>
+      <c r="L39" s="5"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -1551,8 +1591,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1564,7 +1605,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="3"/>
+      <c r="L40" s="5"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -1577,8 +1618,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1590,7 +1632,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="3"/>
+      <c r="L41" s="5"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -1603,8 +1645,9 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
-    </row>
-    <row r="42" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3"/>
+    </row>
+    <row r="42" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1616,7 +1659,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
-      <c r="L42" s="3"/>
+      <c r="L42" s="6"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -1629,8 +1672,9 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
-    </row>
-    <row r="43" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3"/>
+    </row>
+    <row r="43" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1642,7 +1686,7 @@
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
-      <c r="L43" s="3"/>
+      <c r="L43" s="9"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -1655,8 +1699,9 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
-    </row>
-    <row r="44" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3"/>
+    </row>
+    <row r="44" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -1668,7 +1713,7 @@
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
-      <c r="L44" s="3"/>
+      <c r="L44" s="9"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -1681,8 +1726,9 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
-    </row>
-    <row r="45" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3"/>
+    </row>
+    <row r="45" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1694,7 +1740,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
-      <c r="L45" s="3"/>
+      <c r="L45" s="9"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -1707,8 +1753,9 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
-    </row>
-    <row r="46" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3"/>
+    </row>
+    <row r="46" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -1720,7 +1767,7 @@
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
-      <c r="L46" s="3"/>
+      <c r="L46" s="9"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -1733,8 +1780,9 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
-    </row>
-    <row r="47" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3"/>
+    </row>
+    <row r="47" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1746,7 +1794,7 @@
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
-      <c r="L47" s="3"/>
+      <c r="L47" s="9"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -1759,8 +1807,9 @@
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
-    </row>
-    <row r="48" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3"/>
+    </row>
+    <row r="48" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -1772,7 +1821,7 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
-      <c r="L48" s="3"/>
+      <c r="L48" s="9"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -1785,8 +1834,9 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
-    </row>
-    <row r="49" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3"/>
+    </row>
+    <row r="49" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1798,7 +1848,7 @@
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
-      <c r="L49" s="3"/>
+      <c r="L49" s="9"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -1811,8 +1861,9 @@
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
-    </row>
-    <row r="50" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3"/>
+    </row>
+    <row r="50" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -1824,7 +1875,7 @@
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
-      <c r="L50" s="3"/>
+      <c r="L50" s="9"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
@@ -1837,8 +1888,9 @@
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
-    </row>
-    <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3"/>
+    </row>
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1850,8 +1902,9 @@
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
-    </row>
-    <row r="52" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L51" s="9"/>
+    </row>
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -1863,8 +1916,9 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
-    </row>
-    <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L52" s="9"/>
+    </row>
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1876,8 +1930,9 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
-    </row>
-    <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L53" s="9"/>
+    </row>
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -1889,8 +1944,9 @@
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
-    </row>
-    <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L54" s="9"/>
+    </row>
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -1902,8 +1958,9 @@
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
-    </row>
-    <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L55" s="9"/>
+    </row>
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -1915,8 +1972,9 @@
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
-    </row>
-    <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L56" s="9"/>
+    </row>
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -1928,8 +1986,9 @@
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
-    </row>
-    <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L57" s="9"/>
+    </row>
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -1941,8 +2000,9 @@
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
-    </row>
-    <row r="59" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L58" s="9"/>
+    </row>
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -1954,8 +2014,9 @@
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
-    </row>
-    <row r="60" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L59" s="9"/>
+    </row>
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -1967,8 +2028,9 @@
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
-    </row>
-    <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L60" s="9"/>
+    </row>
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -1980,8 +2042,9 @@
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
-    </row>
-    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L61" s="9"/>
+    </row>
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -1993,8 +2056,9 @@
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
-    </row>
-    <row r="63" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L62" s="9"/>
+    </row>
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -2006,8 +2070,9 @@
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
-    </row>
-    <row r="64" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L63" s="9"/>
+    </row>
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -2019,8 +2084,9 @@
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
-    </row>
-    <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L64" s="9"/>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -2032,8 +2098,9 @@
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
-    </row>
-    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L65" s="9"/>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -2045,8 +2112,9 @@
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
-    </row>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L66" s="9"/>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -2058,8 +2126,9 @@
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
-    </row>
-    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L67" s="9"/>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -2071,8 +2140,9 @@
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
-    </row>
-    <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L68" s="9"/>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -2084,8 +2154,9 @@
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
-    </row>
-    <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -2097,8 +2168,9 @@
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
-    </row>
-    <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -2110,16 +2182,17 @@
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
-    </row>
-    <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3032,10 +3105,10 @@
   <mergeCells count="4">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="40" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="37" orientation="portrait"/>
 </worksheet>
 </file>